--- a/hourly datasets/cap_gen_year6final.xlsx
+++ b/hourly datasets/cap_gen_year6final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1242739851070757</v>
+        <v>0.1171128981563193</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0001398049306534644</v>
+        <v>0.001751616726639724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0030499268999959</v>
+        <v>0.0005886542447783803</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8492620865691776</v>
+        <v>4.72041620568</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1761312825706523</v>
+        <v>0.07148561940509333</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.006117724223609135</v>
+        <v>0.0005978714841086201</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005838114362302212</v>
+        <v>0.002905361969170828</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1241341801764223</v>
+        <v>0.118864514882959</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003438104056472168</v>
+        <v>0.005976259980203255</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004029539529615715</v>
+        <v>0.0008752086631142932</v>
       </c>
       <c r="D4" t="n">
-        <v>2.926344370051753</v>
+        <v>9.070296014769472</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1383342136289189</v>
+        <v>0.1160658002708508</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00445982061910282</v>
+        <v>0.004260875680703753</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01133602873204716</v>
+        <v>0.007691644279702758</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1277120891635479</v>
+        <v>0.1230891581365225</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01557127177376306</v>
+        <v>0.01450988904263016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00505353976987919</v>
+        <v>0.001869879344199833</v>
       </c>
       <c r="D5" t="n">
-        <v>3.389983288569926</v>
+        <v>12.08588329835214</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1174034209052727</v>
+        <v>0.116797703649839</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005666330342862042</v>
+        <v>0.01084497900738589</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02547621320466409</v>
+        <v>0.01817479907787442</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1398452568808388</v>
+        <v>0.1316227871989495</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009933674229088802</v>
+        <v>0.02361377326808725</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004244887891936135</v>
+        <v>0.00479548871852964</v>
       </c>
       <c r="D6" t="n">
-        <v>2.268692616559552</v>
+        <v>12.10583851656908</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2224621424923482</v>
+        <v>0.8828958137500963</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001910083224264701</v>
+        <v>0.01583627778076365</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0175374450100604</v>
+        <v>0.0289753680946028</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1342076593361645</v>
+        <v>0.1407266714244066</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009188737843249454</v>
+        <v>0.024533271278712</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003166128307345768</v>
+        <v>0.005990063738319108</v>
       </c>
       <c r="D7" t="n">
-        <v>1.950939805011891</v>
+        <v>10.64061017633164</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1273980538090378</v>
+        <v>0.6999744282950865</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003216508258512198</v>
+        <v>0.01428901431217685</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01488991862404824</v>
+        <v>0.03274618708407508</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1334627229503252</v>
+        <v>0.1416461694350313</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007330265530408373</v>
+        <v>0.02731791392427544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002420484923785138</v>
+        <v>0.004659349870548872</v>
       </c>
       <c r="D8" t="n">
-        <v>1.735177949761735</v>
+        <v>11.13449745625414</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06940006797382169</v>
+        <v>-0.08109131265847877</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002517109986391083</v>
+        <v>0.0187742668980547</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01248250385442908</v>
+        <v>0.03707169085692393</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1316042506374841</v>
+        <v>0.1444308120805947</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007777467363090816</v>
+        <v>0.02895797071699005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001834315553620342</v>
+        <v>0.003142553185564316</v>
       </c>
       <c r="D9" t="n">
-        <v>1.62967679570273</v>
+        <v>9.764336544709577</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05267649621012254</v>
+        <v>-0.1432627292233572</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004173045135059224</v>
+        <v>0.02601714830501916</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01172727549240945</v>
+        <v>0.03585942964113151</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1320514524701665</v>
+        <v>0.1460708688733094</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1242739851070757</v>
+        <v>-0.1171128981563193</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001905180435463862</v>
+        <v>0.0004661576400478731</v>
       </c>
       <c r="D10" t="n">
-        <v>-121.4691541345274</v>
+        <v>-260.007564558441</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01366680624391838</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1280081642618066</v>
+        <v>-0.1180265535176245</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1205398059523448</v>
+        <v>-0.116199242795014</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06078931536760501</v>
+        <v>-0.05914300480267276</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00203615366123834</v>
+        <v>0.0005233340776124656</v>
       </c>
       <c r="D11" t="n">
-        <v>-49.0232396265054</v>
+        <v>-113.6928165133035</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0107507571939402</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06478020344532781</v>
+        <v>-0.06016872429518282</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05679842728988226</v>
+        <v>-0.05811728531016268</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06348466973947071</v>
+        <v>0.05796989335364654</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05311050745655766</v>
+        <v>-0.05055369132759287</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002020822427941042</v>
+        <v>0.000509490071951381</v>
       </c>
       <c r="D12" t="n">
-        <v>-43.51805020078966</v>
+        <v>-101.0688135133905</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02487032945026584</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05707134687993032</v>
+        <v>-0.05155227696881815</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04914966803318496</v>
+        <v>-0.04955510568636758</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07116347765051806</v>
+        <v>0.06655920682872643</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04447835151248643</v>
+        <v>-0.04238585770763247</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002008029104327305</v>
+        <v>0.0005055313894263784</v>
       </c>
       <c r="D13" t="n">
-        <v>-36.12798870837464</v>
+        <v>-84.00008364807073</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01852839410688609</v>
+        <v>3.864917428580268e-304</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04841411723435296</v>
+        <v>-0.04337668443873938</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04054258579061996</v>
+        <v>-0.04139503097652557</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0797956335945893</v>
+        <v>0.07472704044868683</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03977573599900525</v>
+        <v>-0.03715318570259091</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002007529284476611</v>
+        <v>0.0005013035115643763</v>
       </c>
       <c r="D14" t="n">
-        <v>-31.43549330274792</v>
+        <v>-72.56134769261372</v>
       </c>
       <c r="E14" t="n">
-        <v>0.009234307127018105</v>
+        <v>7.264147222171206e-198</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0437105226686495</v>
+        <v>-0.03813572593228513</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03584094932936096</v>
+        <v>-0.03617064547289668</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08449824910807047</v>
+        <v>0.07995971245372839</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03430633068719355</v>
+        <v>-0.03166955018955077</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001974423970046659</v>
+        <v>0.0004928681619996101</v>
       </c>
       <c r="D15" t="n">
-        <v>-27.8256634896916</v>
+        <v>-62.618241039164</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02145062612007635</v>
+        <v>1.016287705386315e-94</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03817623125973295</v>
+        <v>-0.03263555740145004</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03043643011465416</v>
+        <v>-0.03070354297765149</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08996765441988216</v>
+        <v>0.08544334796676853</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03223443347539692</v>
+        <v>-0.02944736298860311</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001926731234458083</v>
+        <v>0.0004746102597525732</v>
       </c>
       <c r="D16" t="n">
-        <v>-26.76153085341673</v>
+        <v>-58.83123800757404</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01766795079540909</v>
+        <v>6.655003808821432e-28</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03601085861186067</v>
+        <v>-0.03037758527920681</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02845800833893319</v>
+        <v>-0.02851714069799943</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09203955163167882</v>
+        <v>0.08766553516771619</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03058196680438468</v>
+        <v>-0.02655517660578525</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00200648129813716</v>
+        <v>0.0004843724248204951</v>
       </c>
       <c r="D17" t="n">
-        <v>-23.99557778144678</v>
+        <v>-53.50460004612993</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03572336873844725</v>
+        <v>1.872241760688606e-59</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.03451471188651315</v>
+        <v>-0.02750453243099215</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02664922172225615</v>
+        <v>-0.02560582078057835</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09369201830269105</v>
+        <v>0.09055772155053404</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02657735029323098</v>
+        <v>-0.02412900377462856</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001997711594577585</v>
+        <v>0.0004883729551201607</v>
       </c>
       <c r="D18" t="n">
-        <v>-21.12300202665353</v>
+        <v>-48.46407167942537</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03421554098856842</v>
+        <v>1.095091326729609e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.03049289555060738</v>
+        <v>-0.02508620048047725</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02266180503585456</v>
+        <v>-0.02317180706877986</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09769663481384475</v>
+        <v>0.09298389438169075</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02160849076879231</v>
+        <v>-0.0188972891002038</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002038547596294528</v>
+        <v>0.0004789421010117074</v>
       </c>
       <c r="D19" t="n">
-        <v>-16.28134015541126</v>
+        <v>-38.83378889115956</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03383975921164931</v>
+        <v>0.004069961672764923</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02560408849970858</v>
+        <v>-0.01983600163436389</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01761289303787604</v>
+        <v>-0.01795857656604369</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1026654943382834</v>
+        <v>0.0982156090561155</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01873450722996796</v>
+        <v>-0.01593499849413125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002011873021945834</v>
+        <v>0.000490662270992007</v>
       </c>
       <c r="D20" t="n">
-        <v>-14.1010019721925</v>
+        <v>-32.75281312191834</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0304549815036548</v>
+        <v>0.001804839781867012</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02267781599631478</v>
+        <v>-0.0168966822541038</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01479119846362115</v>
+        <v>-0.01497331473415869</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1055394778771078</v>
+        <v>0.1011778996621881</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01518386595773291</v>
+        <v>-0.0116172847166318</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002015273596747984</v>
+        <v>0.0004928123625478579</v>
       </c>
       <c r="D21" t="n">
-        <v>-11.42987216558963</v>
+        <v>-24.89990881517644</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03020383230808948</v>
+        <v>1.090203038055371e-09</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01913383549305164</v>
+        <v>-0.01258318254692239</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01123389642241417</v>
+        <v>-0.0106513868863412</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1090901191493428</v>
+        <v>0.1054956134396875</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0121216381124146</v>
+        <v>-0.009045888562279947</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001983285849266127</v>
+        <v>0.0004840828551545576</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.318024045506501</v>
+        <v>-20.01838321270301</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05966152026830882</v>
+        <v>1.434485411480741e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01600890739817234</v>
+        <v>-0.009994676818258151</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.008234368826656872</v>
+        <v>-0.00809710030630174</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1121523469946611</v>
+        <v>0.1080670095940394</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.009899995141317241</v>
+        <v>-0.006839539416897422</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001969301504046906</v>
+        <v>0.0004781462641888565</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.684759524789516</v>
+        <v>-15.66232366301672</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08015133102717305</v>
+        <v>0.03075118075715774</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01375985384916219</v>
+        <v>-0.007776692137867619</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.006040136433472283</v>
+        <v>-0.005902386695927224</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1143739899657585</v>
+        <v>0.1102733587394219</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005634427660002181</v>
+        <v>-0.003845330171996173</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001958669675950222</v>
+        <v>0.0004724253566438683</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.141417111393214</v>
+        <v>-9.186877028688576</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07143740530295818</v>
+        <v>0.09880880719529377</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.009473446258485233</v>
+        <v>-0.00477127012937318</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00179540906151912</v>
+        <v>-0.002919390214619164</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1186395574470736</v>
+        <v>0.1132675679843231</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002611631529898393</v>
+        <v>-0.0017349681679533</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001908110448959261</v>
+        <v>0.0004531672323743885</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.915704919319031</v>
+        <v>-4.734285572795315</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08016238981991165</v>
+        <v>0.07161111809629701</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.006351553231157036</v>
+        <v>-0.002623162764777247</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001128290171360248</v>
+        <v>-0.0008467735711293535</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1216623535771773</v>
+        <v>0.115377929988366</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02441023567654269</v>
+        <v>0.06609685353543178</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001669132426628084</v>
+        <v>0.002642900245841702</v>
       </c>
       <c r="D26" t="n">
-        <v>6.927807434536069</v>
+        <v>33.95510765128341</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.04231013895532793</v>
+        <v>0.0854206001918808</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02111561534261186</v>
+        <v>0.06091684773179267</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02811802204032576</v>
+        <v>0.07127685933907085</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1486842207836184</v>
+        <v>0.1832097516917511</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year6final.xlsx
+++ b/hourly datasets/cap_gen_year6final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1171128981563193</v>
+        <v>0.1172766811765816</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001751616726639724</v>
+        <v>0.00149123411195001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005886542447783803</v>
+        <v>0.0005895585653064073</v>
       </c>
       <c r="D3" t="n">
-        <v>4.72041620568</v>
+        <v>4.268778315270445</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07148561940509333</v>
+        <v>0.01654839226900743</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005978714841086201</v>
+        <v>0.0003357164455390981</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002905361969170828</v>
+        <v>0.002646751778360921</v>
       </c>
       <c r="H3" t="n">
-        <v>0.118864514882959</v>
+        <v>0.1187679152885316</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005976259980203255</v>
+        <v>0.005509024668922786</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008752086631142932</v>
+        <v>0.0008655142838413038</v>
       </c>
       <c r="D4" t="n">
-        <v>9.070296014769472</v>
+        <v>8.418502555247455</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1160658002708508</v>
+        <v>0.009967522333862439</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004260875680703753</v>
+        <v>0.003812641084925916</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007691644279702758</v>
+        <v>0.007205408252919656</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1230891581365225</v>
+        <v>0.1227857058455044</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01450988904263016</v>
+        <v>0.01319475132132113</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001869879344199833</v>
+        <v>0.001936277261876044</v>
       </c>
       <c r="D5" t="n">
-        <v>12.08588329835214</v>
+        <v>10.94589599108794</v>
       </c>
       <c r="E5" t="n">
-        <v>0.116797703649839</v>
+        <v>0.1098421127723675</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01084497900738589</v>
+        <v>0.009399703507761314</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01817479907787442</v>
+        <v>0.01698979913488095</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1316227871989495</v>
+        <v>0.1304714324979027</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02361377326808725</v>
+        <v>0.01867169919502345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00479548871852964</v>
+        <v>0.003698698444445231</v>
       </c>
       <c r="D6" t="n">
-        <v>12.10583851656908</v>
+        <v>9.820664290922261</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8828958137500963</v>
+        <v>0.8452589201006475</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01583627778076365</v>
+        <v>0.0130254559293113</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0289753680946028</v>
+        <v>0.02193702669660444</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1407266714244066</v>
+        <v>0.1359483803716051</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.024533271278712</v>
+        <v>0.02374860400238035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005990063738319108</v>
+        <v>0.005885646044763945</v>
       </c>
       <c r="D7" t="n">
-        <v>10.64061017633164</v>
+        <v>9.221165292818108</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6999744282950865</v>
+        <v>0.6343580177257466</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01428901431217685</v>
+        <v>0.01365829819408327</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03274618708407508</v>
+        <v>0.03191103362247933</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1416461694350313</v>
+        <v>0.141025285178962</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02731791392427544</v>
+        <v>0.02588125233757834</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004659349870548872</v>
+        <v>0.004396787959179234</v>
       </c>
       <c r="D8" t="n">
-        <v>11.13449745625414</v>
+        <v>9.657054283532601</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.08109131265847877</v>
+        <v>-0.1882800830034258</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0187742668980547</v>
+        <v>0.01750464526235524</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03707169085692393</v>
+        <v>0.03524610977852242</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1444308120805947</v>
+        <v>0.14315793351416</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02895797071699005</v>
+        <v>0.02693700564399662</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003142553185564316</v>
+        <v>0.003873854947805341</v>
       </c>
       <c r="D9" t="n">
-        <v>9.764336544709577</v>
+        <v>7.445195536341681</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1432627292233572</v>
+        <v>-0.1545542601501718</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02601714830501916</v>
+        <v>0.02156609397798212</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03585942964113151</v>
+        <v>0.03538352499010396</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1460708688733094</v>
+        <v>0.1442136868205782</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1171128981563193</v>
+        <v>-0.1172766811765816</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004661576400478731</v>
+        <v>0.0004637518478483534</v>
       </c>
       <c r="D10" t="n">
-        <v>-260.007564558441</v>
+        <v>-261.168975764826</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1180265535176245</v>
+        <v>-0.1181856212435024</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.116199242795014</v>
+        <v>-0.1163677411096608</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05914300480267276</v>
+        <v>-0.05829851006939551</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005233340776124656</v>
+        <v>0.0005207497842146907</v>
       </c>
       <c r="D11" t="n">
-        <v>-113.6928165133035</v>
+        <v>-113.264322570983</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06016872429518282</v>
+        <v>-0.0593191644085056</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05811728531016268</v>
+        <v>-0.05727785573028545</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05796989335364654</v>
+        <v>0.0589781711071861</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05055369132759287</v>
+        <v>-0.05003491685563939</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000509490071951381</v>
+        <v>0.0005074849966544323</v>
       </c>
       <c r="D12" t="n">
-        <v>-101.0688135133905</v>
+        <v>-100.6660342721212</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05155227696881815</v>
+        <v>-0.05102957259096365</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04955510568636758</v>
+        <v>-0.04904026112031511</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06655920682872643</v>
+        <v>0.06724176432094223</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04238585770763247</v>
+        <v>-0.04164089169405159</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005055313894263784</v>
+        <v>0.0005016679056950482</v>
       </c>
       <c r="D13" t="n">
-        <v>-84.00008364807073</v>
+        <v>-83.28729500758747</v>
       </c>
       <c r="E13" t="n">
-        <v>3.864917428580268e-304</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04337668443873938</v>
+        <v>-0.04262414609711365</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04139503097652557</v>
+        <v>-0.04065763729098953</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07472704044868683</v>
+        <v>0.07563578948253002</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03715318570259091</v>
+        <v>-0.03633722317629675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005013035115643763</v>
+        <v>0.0004975284306623258</v>
       </c>
       <c r="D14" t="n">
-        <v>-72.56134769261372</v>
+        <v>-71.8342500813819</v>
       </c>
       <c r="E14" t="n">
-        <v>7.264147222171206e-198</v>
+        <v>2.704395001276899e-275</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03813572593228513</v>
+        <v>-0.03731236434757509</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03617064547289668</v>
+        <v>-0.03536208200501842</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07995971245372839</v>
+        <v>0.08093945800028488</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03166955018955077</v>
+        <v>-0.03093509178565839</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004928681619996101</v>
+        <v>0.0004887419077370746</v>
       </c>
       <c r="D15" t="n">
-        <v>-62.618241039164</v>
+        <v>-61.8850468305323</v>
       </c>
       <c r="E15" t="n">
-        <v>1.016287705386315e-94</v>
+        <v>1.451404084148945e-92</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03263555740145004</v>
+        <v>-0.03189301164954845</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03070354297765149</v>
+        <v>-0.02997717192176833</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08544334796676853</v>
+        <v>0.08634158939092323</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02944736298860311</v>
+        <v>-0.02859958287268363</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004746102597525732</v>
+        <v>0.0004705624727657168</v>
       </c>
       <c r="D16" t="n">
-        <v>-58.83123800757404</v>
+        <v>-57.86511133381452</v>
       </c>
       <c r="E16" t="n">
-        <v>6.655003808821432e-28</v>
+        <v>2.803302958063049e-18</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03037758527920681</v>
+        <v>-0.0295218716084275</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02851714069799943</v>
+        <v>-0.02767729413693976</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08766553516771619</v>
+        <v>0.08867709830389799</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02655517660578525</v>
+        <v>-0.02583705972249104</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004843724248204951</v>
+        <v>0.0004797730240669407</v>
       </c>
       <c r="D17" t="n">
-        <v>-53.50460004612993</v>
+        <v>-52.76643376043974</v>
       </c>
       <c r="E17" t="n">
-        <v>1.872241760688606e-59</v>
+        <v>1.029575701668463e-38</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02750453243099215</v>
+        <v>-0.02677740084576754</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02560582078057835</v>
+        <v>-0.02489671859921455</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09055772155053404</v>
+        <v>0.09143962145409057</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02412900377462856</v>
+        <v>-0.02353013495071492</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004883729551201607</v>
+        <v>0.000483395121379</v>
       </c>
       <c r="D18" t="n">
-        <v>-48.46407167942537</v>
+        <v>-47.96374038969503</v>
       </c>
       <c r="E18" t="n">
-        <v>1.095091326729609e-14</v>
+        <v>0.002158079301006169</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02508620048047725</v>
+        <v>-0.02447757523751682</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02317180706877986</v>
+        <v>-0.02258269466391302</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09298389438169075</v>
+        <v>0.0937465462258667</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0188972891002038</v>
+        <v>-0.01854530686849786</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004789421010117074</v>
+        <v>0.0004758033935722927</v>
       </c>
       <c r="D19" t="n">
-        <v>-38.83378889115956</v>
+        <v>-38.84857724972109</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004069961672764923</v>
+        <v>9.818031762908035e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01983600163436389</v>
+        <v>-0.01947786761732889</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01795857656604369</v>
+        <v>-0.01761274611966682</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0982156090561155</v>
+        <v>0.09873137430808376</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01593499849413125</v>
+        <v>-0.01566017119347881</v>
       </c>
       <c r="C20" t="n">
-        <v>0.000490662270992007</v>
+        <v>0.0004873014574390111</v>
       </c>
       <c r="D20" t="n">
-        <v>-32.75281312191834</v>
+        <v>-32.90695729878631</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001804839781867012</v>
+        <v>0.0002621918624369217</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0168966822541038</v>
+        <v>-0.0166152678460229</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01497331473415869</v>
+        <v>-0.01470507454093471</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1011778996621881</v>
+        <v>0.1016165099831028</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0116172847166318</v>
+        <v>-0.01146633230925651</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004928123625478579</v>
+        <v>0.0004895308506705412</v>
       </c>
       <c r="D21" t="n">
-        <v>-24.89990881517644</v>
+        <v>-25.0073987939435</v>
       </c>
       <c r="E21" t="n">
-        <v>1.090203038055371e-09</v>
+        <v>0.0004109209763335877</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01258318254692239</v>
+        <v>-0.01242579846106885</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0106513868863412</v>
+        <v>-0.01050686615744417</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1054956134396875</v>
+        <v>0.1058103488673251</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.009045888562279947</v>
+        <v>-0.008887709967217099</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004840828551545576</v>
+        <v>0.0004805127544778642</v>
       </c>
       <c r="D22" t="n">
-        <v>-20.01838321270301</v>
+        <v>-19.92936683676981</v>
       </c>
       <c r="E22" t="n">
-        <v>1.434485411480741e-05</v>
+        <v>0.0006723137509292257</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.009994676818258151</v>
+        <v>-0.009829500917832037</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00809710030630174</v>
+        <v>-0.007945919016602156</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1080670095940394</v>
+        <v>0.1083889712093645</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006839539416897422</v>
+        <v>-0.006744543651274631</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004781462641888565</v>
+        <v>0.0004746391842905899</v>
       </c>
       <c r="D23" t="n">
-        <v>-15.66232366301672</v>
+        <v>-15.9206339085874</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03075118075715774</v>
+        <v>0.01233612598325733</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.007776692137867619</v>
+        <v>-0.007674822584310985</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.005902386695927224</v>
+        <v>-0.005814264718238277</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1102733587394219</v>
+        <v>0.110532137525307</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003845330171996173</v>
+        <v>-0.00361657538330711</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004724253566438683</v>
+        <v>0.0004692611095031589</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.186877028688576</v>
+        <v>-8.947163434645796</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09880880719529377</v>
+        <v>0.08908835119569074</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.00477127012937318</v>
+        <v>-0.004536313496460702</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.002919390214619164</v>
+        <v>-0.002696837270153518</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1132675679843231</v>
+        <v>0.1136601057932745</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0017349681679533</v>
+        <v>-0.001493123161348314</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004531672323743885</v>
+        <v>0.0004499902484171795</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.734285572795315</v>
+        <v>-4.657799807774424</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07161111809629701</v>
+        <v>0.05685236194791903</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002623162764777247</v>
+        <v>-0.002375090952592446</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0008467735711293535</v>
+        <v>-0.0006111553701041819</v>
       </c>
       <c r="H25" t="n">
-        <v>0.115377929988366</v>
+        <v>0.1157835580152333</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06609685353543178</v>
+        <v>0.1036480608988929</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002642900245841702</v>
+        <v>0.003832029394552747</v>
       </c>
       <c r="D26" t="n">
-        <v>33.95510765128341</v>
+        <v>28.65414342981258</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0854206001918808</v>
+        <v>0.07019055478455664</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06091684773179267</v>
+        <v>0.09613739769764028</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07127685933907085</v>
+        <v>0.1111587241001456</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1832097516917511</v>
+        <v>0.2209247420754745</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year6final.xlsx
+++ b/hourly datasets/cap_gen_year6final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,613 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1172766811765816</v>
+        <v>0.1353456763974041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00149123411195001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0005895585653064073</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.268778315270445</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01654839226900743</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0003357164455390981</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.002646751778360921</v>
-      </c>
+        <v>0.1228821080936514</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1187679152885316</v>
+        <v>0.2582277844910555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005509024668922786</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0008655142838413038</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.418502555247455</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.009967522333862439</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.003812641084925916</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.007205408252919656</v>
-      </c>
+        <v>0.1592543609013536</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1227857058455044</v>
+        <v>0.2946000372987577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01319475132132113</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001936277261876044</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.94589599108794</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1098421127723675</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.009399703507761314</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01698979913488095</v>
-      </c>
+        <v>0.1884613690183755</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1304714324979027</v>
+        <v>0.3238070454157796</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01867169919502345</v>
+        <v>0.2038580641057407</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003698698444445231</v>
+        <v>0.009147043995902876</v>
       </c>
       <c r="D6" t="n">
-        <v>9.820664290922261</v>
+        <v>20.70460408146258</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8452589201006475</v>
+        <v>0.006138231333043506</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0130254559293113</v>
+        <v>0.1858685005066072</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02193702669660444</v>
+        <v>0.2218476277048763</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1359483803716051</v>
+        <v>0.3392037405031448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02374860400238035</v>
+        <v>0.0149126159573459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005885646044763945</v>
+        <v>0.0007511449996177005</v>
       </c>
       <c r="D7" t="n">
-        <v>9.221165292818108</v>
+        <v>2.8038122248682</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6343580177257466</v>
+        <v>0.004154570581436388</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01365829819408327</v>
+        <v>0.01343982032521858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03191103362247933</v>
+        <v>0.01638541158947272</v>
       </c>
       <c r="H7" t="n">
-        <v>0.141025285178962</v>
+        <v>0.15025829235475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02588125233757834</v>
+        <v>0.01181426822686359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004396787959179234</v>
+        <v>0.0006095621644312976</v>
       </c>
       <c r="D8" t="n">
-        <v>9.657054283532601</v>
+        <v>2.227610782136189</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1882800830034258</v>
+        <v>0.002147103298575694</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01750464526235524</v>
+        <v>0.01061899282492197</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03524610977852242</v>
+        <v>0.01300954362880494</v>
       </c>
       <c r="H8" t="n">
-        <v>0.14315793351416</v>
+        <v>0.1471599446242677</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02693700564399662</v>
+        <v>0.009798942226069252</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003873854947805341</v>
+        <v>0.0005734080330123738</v>
       </c>
       <c r="D9" t="n">
-        <v>7.445195536341681</v>
+        <v>1.420488449567269</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1545542601501718</v>
+        <v>0.003459127413742223</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02156609397798212</v>
+        <v>0.008674793617553278</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03538352499010396</v>
+        <v>0.01092309083458494</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1442136868205782</v>
+        <v>0.1451446186234734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1172766811765816</v>
+        <v>0.009479050557469839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004637518478483534</v>
+        <v>0.0004627988456248374</v>
       </c>
       <c r="D10" t="n">
-        <v>-261.168975764826</v>
+        <v>1.577962180159913</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.001805659411683979</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1181856212435024</v>
+        <v>0.008571773949990195</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1163677411096608</v>
+        <v>0.01038632716494914</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.144824726954874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05829851006939551</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005207497842146907</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-113.264322570983</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.0593191644085056</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.05727785573028545</v>
-      </c>
+        <v>0.03062045479117151</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.0589781711071861</v>
+        <v>0.1659661311885756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05003491685563939</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005074849966544323</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-100.6660342721212</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.05102957259096365</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.04904026112031511</v>
-      </c>
+        <v>0.04904863430087345</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06724176432094223</v>
+        <v>0.1843943106982776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04164089169405159</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005016679056950482</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-83.28729500758747</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.04262414609711365</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.04065763729098953</v>
-      </c>
+        <v>0.06332561099808286</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.07563578948253002</v>
+        <v>0.198671287395487</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03633722317629675</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0004975284306623258</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-71.8342500813819</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.704395001276899e-275</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.03731236434757509</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.03536208200501842</v>
-      </c>
+        <v>0.06970558007256558</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.08093945800028488</v>
+        <v>0.2050512564699697</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03093509178565839</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0004887419077370746</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-61.8850468305323</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.451404084148945e-92</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.03189301164954845</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02997717192176833</v>
-      </c>
+        <v>0.07320325145889857</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.08634158939092323</v>
+        <v>0.2085489278563027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02859958287268363</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004705624727657168</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-57.86511133381452</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.803302958063049e-18</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.0295218716084275</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02767729413693976</v>
-      </c>
+        <v>0.0763747747870154</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.08867709830389799</v>
+        <v>0.2117204511844195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02583705972249104</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0004797730240669407</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-52.76643376043974</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.029575701668463e-38</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02677740084576754</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.02489671859921455</v>
-      </c>
+        <v>0.07959244263386082</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.09143962145409057</v>
+        <v>0.214938119031265</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02353013495071492</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.000483395121379</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-47.96374038969503</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.002158079301006169</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.02447757523751682</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.02258269466391302</v>
-      </c>
+        <v>-0.1353456763974041</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.0937465462258667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01854530686849786</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0004758033935722927</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-38.84857724972109</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.818031762908035e-07</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01947786761732889</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01761274611966682</v>
-      </c>
+        <v>0.08291142716174257</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.09873137430808376</v>
+        <v>0.2182571035591467</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01566017119347881</v>
+        <v>0.08616346388186309</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004873014574390111</v>
+        <v>0.007517600192273869</v>
       </c>
       <c r="D20" t="n">
-        <v>-32.90695729878631</v>
+        <v>1041005476.302979</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0002621918624369217</v>
+        <v>0.05635498126101629</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0166152678460229</v>
+        <v>0.0712670505879191</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01470507454093471</v>
+        <v>0.1010598771758069</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1016165099831028</v>
+        <v>0.2215091402792672</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01146633230925651</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0004895308506705412</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-25.0073987939435</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0004109209763335877</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.01242579846106885</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.01050686615744417</v>
-      </c>
+        <v>0.09054554912345522</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.1058103488673251</v>
+        <v>0.2258912255208594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.008887709967217099</v>
+        <v>0.0950118647744788</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004805127544778642</v>
+        <v>0.007267230516018247</v>
       </c>
       <c r="D22" t="n">
-        <v>-19.92936683676981</v>
+        <v>1474031849642.314</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0006723137509292257</v>
+        <v>0.04418313342302289</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.009829500917832037</v>
+        <v>0.08071048406920235</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.007945919016602156</v>
+        <v>0.1093132454797551</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1083889712093645</v>
+        <v>0.230357541171883</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006744543651274631</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0004746391842905899</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-15.9206339085874</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.01233612598325733</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.007674822584310985</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.005814264718238277</v>
-      </c>
+        <v>0.09852072015406226</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.110532137525307</v>
+        <v>0.2338663965514664</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.00361657538330711</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0004692611095031589</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-8.947163434645796</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.08908835119569074</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.004536313496460702</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.002696837270153518</v>
-      </c>
+        <v>0.0980799807182258</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.1136601057932745</v>
+        <v>0.2334256571156299</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001493123161348314</v>
+        <v>0.1041127985805023</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004499902484171795</v>
+        <v>0.007293909165699064</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.657799807774424</v>
+        <v>21.41359125622314</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05685236194791903</v>
+        <v>0.05316508381696147</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002375090952592446</v>
+        <v>0.08978191878153939</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0006111553701041819</v>
+        <v>0.1184436783794653</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1157835580152333</v>
+        <v>0.2394584749779065</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1055408188106191</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.007143023634619561</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1054547259215.712</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05624373885477795</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.09150037444720469</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1195812631740332</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2408864952080233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1110126354475078</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.00721135616931858</v>
+      </c>
+      <c r="D27" t="n">
+        <v>22.75719393401493</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.04927239544691839</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0968430543582179</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1251822165367978</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2463583118449119</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1144333167155419</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007358241720572509</v>
+      </c>
+      <c r="D28" t="n">
+        <v>22.6049494216488</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08232623357760588</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09987029307287157</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1289963403582116</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2497789931129461</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.1036480608988929</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.003832029394552747</v>
-      </c>
-      <c r="D26" t="n">
-        <v>28.65414342981258</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.07019055478455664</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.09613739769764028</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.1111587241001456</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2209247420754745</v>
+      <c r="B29" t="n">
+        <v>0.00750948593965477</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.000407315528254716</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.902954106536096</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01381148259328644</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.006710728932866612</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.008308242946443053</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1428551623370589</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year6final.xlsx
+++ b/hourly datasets/cap_gen_year6final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1353456763974041</v>
+        <v>0.1055014252150202</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1228821080936514</v>
+        <v>0.1223643052292021</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2582277844910555</v>
+        <v>0.2278657304442223</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1592543609013536</v>
+        <v>0.1543637739269478</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2946000372987577</v>
+        <v>0.2598651991419679</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1884613690183755</v>
+        <v>0.1804955279417598</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.3238070454157796</v>
+        <v>0.28599695315678</v>
       </c>
     </row>
     <row r="6">
@@ -554,25 +554,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2038580641057407</v>
+        <v>0.1949553919506408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009147043995902876</v>
+        <v>0.01001588205362942</v>
       </c>
       <c r="D6" t="n">
-        <v>20.70460408146258</v>
+        <v>19.42857643401977</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006138231333043506</v>
+        <v>0.0140652266181283</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1858685005066072</v>
+        <v>0.175252416895114</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2218476277048763</v>
+        <v>0.2146583670061658</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3392037405031448</v>
+        <v>0.300456817165661</v>
       </c>
     </row>
     <row r="7">
@@ -582,25 +582,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0149126159573459</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0007511449996177005</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.8038122248682</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.004154570581436388</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01343982032521858</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01638541158947272</v>
-      </c>
+        <v>0.02133977971314975</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.15025829235475</v>
+        <v>0.1268412049281699</v>
       </c>
     </row>
     <row r="8">
@@ -610,25 +600,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01181426822686359</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0006095621644312976</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.227610782136189</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.002147103298575694</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.01061899282492197</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.01300954362880494</v>
-      </c>
+        <v>0.01956737982069295</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.1471599446242677</v>
+        <v>0.1250688050357131</v>
       </c>
     </row>
     <row r="9">
@@ -638,25 +618,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009798942226069252</v>
+        <v>0.01967619388672123</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005734080330123738</v>
+        <v>0.002473789470562971</v>
       </c>
       <c r="D9" t="n">
-        <v>1.420488449567269</v>
+        <v>2.231242862100606</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003459127413742223</v>
+        <v>0.01607087454981219</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008674793617553278</v>
+        <v>0.01480674496207632</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01092309083458494</v>
+        <v>0.02454564281136651</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1451446186234734</v>
+        <v>0.1251776191017414</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +646,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009479050557469839</v>
+        <v>0.01819615792027296</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004627988456248374</v>
+        <v>0.001706920798387876</v>
       </c>
       <c r="D10" t="n">
-        <v>1.577962180159913</v>
+        <v>2.357010790265366</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001805659411683979</v>
+        <v>0.007233561167894183</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008571773949990195</v>
+        <v>0.01484935047587101</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01038632716494914</v>
+        <v>0.02154296536467539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.144824726954874</v>
+        <v>0.1236975831352931</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +674,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03062045479117151</v>
+        <v>0.0303489923793352</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -702,7 +682,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1659661311885756</v>
+        <v>0.1358504175943554</v>
       </c>
     </row>
     <row r="12">
@@ -712,7 +692,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04904863430087345</v>
+        <v>0.04891898940062141</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -720,7 +700,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1843943106982776</v>
+        <v>0.1544204146156416</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +710,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06332561099808286</v>
+        <v>0.06510632449043699</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -738,7 +718,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.198671287395487</v>
+        <v>0.1706077497054572</v>
       </c>
     </row>
     <row r="14">
@@ -748,7 +728,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06970558007256558</v>
+        <v>0.07010579993015824</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -756,7 +736,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2050512564699697</v>
+        <v>0.1756072251451784</v>
       </c>
     </row>
     <row r="15">
@@ -766,7 +746,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07320325145889857</v>
+        <v>0.07370156985864657</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -774,7 +754,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2085489278563027</v>
+        <v>0.1792029950736667</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0763747747870154</v>
+        <v>0.07686203111217532</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -792,7 +772,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2117204511844195</v>
+        <v>0.1823634563271955</v>
       </c>
     </row>
     <row r="17">
@@ -802,7 +782,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07959244263386082</v>
+        <v>0.0814021779321821</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -810,7 +790,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.214938119031265</v>
+        <v>0.1869036031472023</v>
       </c>
     </row>
     <row r="18">
@@ -820,13 +800,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1353456763974041</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-0.1055014252150202</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01028323408717581</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-17.0575072969968</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.03729676889284375</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1257324288707526</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.08527042155928778</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -838,7 +828,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08291142716174257</v>
+        <v>0.08375116361469076</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -846,7 +836,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2182571035591467</v>
+        <v>0.1892525888297109</v>
       </c>
     </row>
     <row r="20">
@@ -856,25 +846,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08616346388186309</v>
+        <v>0.08702112339154074</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007517600192273869</v>
+        <v>0.007828776380724812</v>
       </c>
       <c r="D20" t="n">
-        <v>1041005476.302979</v>
+        <v>1018685867.564496</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05635498126101629</v>
+        <v>0.05548274623810262</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0712670505879191</v>
+        <v>0.07163032926453368</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1010598771758069</v>
+        <v>0.1024119175185478</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2215091402792672</v>
+        <v>0.1925225486065609</v>
       </c>
     </row>
     <row r="21">
@@ -884,7 +874,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09054554912345522</v>
+        <v>0.09187251963339944</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -892,7 +882,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2258912255208594</v>
+        <v>0.1973739448484196</v>
       </c>
     </row>
     <row r="22">
@@ -902,25 +892,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0950118647744788</v>
+        <v>0.09512302478531502</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007267230516018247</v>
+        <v>0.007559825112236007</v>
       </c>
       <c r="D22" t="n">
-        <v>1474031849642.314</v>
+        <v>1419454891999.033</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04418313342302289</v>
+        <v>0.04498861270255855</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08071048406920235</v>
+        <v>0.08026888315052809</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1093132454797551</v>
+        <v>0.109977166420102</v>
       </c>
       <c r="H22" t="n">
-        <v>0.230357541171883</v>
+        <v>0.2006244500003352</v>
       </c>
     </row>
     <row r="23">
@@ -930,7 +920,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.09852072015406226</v>
+        <v>0.09897289051688896</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -938,7 +928,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.2338663965514664</v>
+        <v>0.2044743157319091</v>
       </c>
     </row>
     <row r="24">
@@ -948,7 +938,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0980799807182258</v>
+        <v>0.09870430536441838</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -956,7 +946,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.2334256571156299</v>
+        <v>0.2042057305794385</v>
       </c>
     </row>
     <row r="25">
@@ -966,25 +956,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1041127985805023</v>
+        <v>0.1043448419642999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007293909165699064</v>
+        <v>0.007971645305570303</v>
       </c>
       <c r="D25" t="n">
-        <v>21.41359125622314</v>
+        <v>20.84991429154281</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05316508381696147</v>
+        <v>0.05534011883655374</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08978191878153939</v>
+        <v>0.08866328690278645</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1184436783794653</v>
+        <v>0.1200263970258132</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2394584749779065</v>
+        <v>0.2098462671793201</v>
       </c>
     </row>
     <row r="26">
@@ -994,25 +984,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1055408188106191</v>
+        <v>0.1043956610411623</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007143023634619561</v>
+        <v>0.008426823957779054</v>
       </c>
       <c r="D26" t="n">
-        <v>1054547259215.712</v>
+        <v>1032466629595.513</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05624373885477795</v>
+        <v>0.06334589898020578</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09150037444720469</v>
+        <v>0.08775956981154608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1195812631740332</v>
+        <v>0.1210317522707784</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2408864952080233</v>
+        <v>0.2098970862561825</v>
       </c>
     </row>
     <row r="27">
@@ -1022,25 +1012,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1110126354475078</v>
+        <v>0.112019832054445</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00721135616931858</v>
+        <v>0.007584406861219519</v>
       </c>
       <c r="D27" t="n">
-        <v>22.75719393401493</v>
+        <v>22.12649488213892</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04927239544691839</v>
+        <v>0.05512387243952326</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0968430543582179</v>
+        <v>0.09712583766759547</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1251822165367978</v>
+        <v>0.1269138264412949</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2463583118449119</v>
+        <v>0.2175212572694651</v>
       </c>
     </row>
     <row r="28">
@@ -1050,25 +1040,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1144333167155419</v>
+        <v>0.1158879859826247</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007358241720572509</v>
+        <v>0.007907565227186959</v>
       </c>
       <c r="D28" t="n">
-        <v>22.6049494216488</v>
+        <v>22.15229369508844</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08232623357760588</v>
+        <v>0.0842547485804046</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09987029307287157</v>
+        <v>0.1003567383376262</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1289963403582116</v>
+        <v>0.131419233627623</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2497789931129461</v>
+        <v>0.2213894111976449</v>
       </c>
     </row>
     <row r="29">
@@ -1078,25 +1068,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00750948593965477</v>
+        <v>0.0212273710948751</v>
       </c>
       <c r="C29" t="n">
-        <v>0.000407315528254716</v>
+        <v>0.002800350282614289</v>
       </c>
       <c r="D29" t="n">
-        <v>1.902954106536096</v>
+        <v>2.719612804864009</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01381148259328644</v>
+        <v>0.01777532955774431</v>
       </c>
       <c r="F29" t="n">
-        <v>0.006710728932866612</v>
+        <v>0.01567169048919264</v>
       </c>
       <c r="G29" t="n">
-        <v>0.008308242946443053</v>
+        <v>0.02678305170055838</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1428551623370589</v>
+        <v>0.1267287963098953</v>
       </c>
     </row>
   </sheetData>
